--- a/data/trans_orig/P14A30-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A30-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{484D6B30-D57B-4F8D-8C3F-35BCBEE20389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6432BB69-76C2-4260-B9C8-279683B5EA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{95555E5C-F36A-4954-8504-84F9461D970A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EC220C21-0EDB-4A67-A1C8-2423F38D5293}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="149">
   <si>
     <t>Población que recibe medicación o terapia por cirrosis en 2012 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -108,7 +108,7 @@
     <t>77,86%</t>
   </si>
   <si>
-    <t>43,82%</t>
+    <t>43,81%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -120,7 +120,7 @@
     <t>22,14%</t>
   </si>
   <si>
-    <t>56,18%</t>
+    <t>56,19%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -129,10 +129,10 @@
     <t>50,19%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -141,19 +141,19 @@
     <t>76,09%</t>
   </si>
   <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>49,81%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -162,10 +162,10 @@
     <t>23,91%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -174,7 +174,7 @@
     <t>48,79%</t>
   </si>
   <si>
-    <t>10,25%</t>
+    <t>11,64%</t>
   </si>
   <si>
     <t>65,94%</t>
@@ -183,16 +183,16 @@
     <t>54,43%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>51,21%</t>
   </si>
   <si>
-    <t>89,75%</t>
+    <t>88,36%</t>
   </si>
   <si>
     <t>34,06%</t>
@@ -201,10 +201,10 @@
     <t>45,57%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -216,13 +216,13 @@
     <t>67,27%</t>
   </si>
   <si>
-    <t>17,05%</t>
+    <t>17,08%</t>
   </si>
   <si>
     <t>80,34%</t>
   </si>
   <si>
-    <t>44,45%</t>
+    <t>45,06%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -231,67 +231,67 @@
     <t>32,73%</t>
   </si>
   <si>
-    <t>82,95%</t>
+    <t>82,92%</t>
   </si>
   <si>
     <t>19,66%</t>
   </si>
   <si>
-    <t>55,55%</t>
+    <t>54,94%</t>
   </si>
   <si>
     <t>70,6%</t>
   </si>
   <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>29,4%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
   </si>
   <si>
     <t>28,72%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -321,7 +321,7 @@
     <t>82,44%</t>
   </si>
   <si>
-    <t>34,42%</t>
+    <t>30,54%</t>
   </si>
   <si>
     <t>58,88%</t>
@@ -330,7 +330,7 @@
     <t>71,55%</t>
   </si>
   <si>
-    <t>38,88%</t>
+    <t>40,13%</t>
   </si>
   <si>
     <t>92,47%</t>
@@ -339,7 +339,7 @@
     <t>17,56%</t>
   </si>
   <si>
-    <t>65,58%</t>
+    <t>69,46%</t>
   </si>
   <si>
     <t>41,12%</t>
@@ -351,127 +351,139 @@
     <t>7,53%</t>
   </si>
   <si>
-    <t>61,12%</t>
+    <t>59,87%</t>
   </si>
   <si>
     <t>86,96%</t>
   </si>
   <si>
-    <t>33,41%</t>
+    <t>46,0%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>13,04%</t>
   </si>
   <si>
-    <t>66,59%</t>
+    <t>54,0%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
   </si>
   <si>
     <t>52,9%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
+    <t>76,52%</t>
+  </si>
+  <si>
     <t>42,48%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
   </si>
   <si>
     <t>47,1%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
+    <t>23,48%</t>
+  </si>
+  <si>
     <t>57,52%</t>
   </si>
   <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
   </si>
   <si>
     <t>64,07%</t>
   </si>
   <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>56,86%</t>
   </si>
   <si>
-    <t>72,12%</t>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
   </si>
   <si>
     <t>35,93%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
   </si>
   <si>
     <t>43,14%</t>
   </si>
   <si>
-    <t>27,88%</t>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
   </si>
 </sst>
 </file>
@@ -883,7 +895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415D5D1E-3033-4648-A498-981435654D28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824A3F6D-1D7A-41AC-A514-0D3B304CABA5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1940,7 +1952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F86040-179B-4B16-BB48-F6005131194F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA46837-44B2-45B6-9989-D60FF02C35CA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2699,7 +2711,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2708,13 +2720,13 @@
         <v>5134</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2741,13 @@
         <v>3679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2744,10 +2756,10 @@
         <v>3273</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -2759,13 +2771,13 @@
         <v>6952</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2845,13 @@
         <v>15865</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -2848,13 +2860,13 @@
         <v>6017</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -2863,13 +2875,13 @@
         <v>21882</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,13 +2896,13 @@
         <v>8899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2899,13 +2911,13 @@
         <v>7703</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -2914,13 +2926,13 @@
         <v>16601</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A30-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A30-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6432BB69-76C2-4260-B9C8-279683B5EA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D2C8CA6-5BA4-42A2-95F4-903F4852B727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EC220C21-0EDB-4A67-A1C8-2423F38D5293}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1168ED5-D0B4-451C-8938-0E9BBDE9AD4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="145">
   <si>
     <t>Población que recibe medicación o terapia por cirrosis en 2012 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -96,7 +96,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -108,7 +108,7 @@
     <t>77,86%</t>
   </si>
   <si>
-    <t>43,81%</t>
+    <t>43,68%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -120,19 +120,19 @@
     <t>22,14%</t>
   </si>
   <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>50,19%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -141,19 +141,19 @@
     <t>76,09%</t>
   </si>
   <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>49,81%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -162,49 +162,37 @@
     <t>23,91%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>48,79%</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
     <t>65,94%</t>
   </si>
   <si>
     <t>54,43%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>17,63%</t>
   </si>
   <si>
     <t>51,21%</t>
   </si>
   <si>
-    <t>88,36%</t>
-  </si>
-  <si>
     <t>34,06%</t>
   </si>
   <si>
     <t>45,57%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
+    <t>82,37%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -222,7 +210,7 @@
     <t>80,34%</t>
   </si>
   <si>
-    <t>45,06%</t>
+    <t>45,11%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -237,67 +225,67 @@
     <t>19,66%</t>
   </si>
   <si>
-    <t>54,94%</t>
+    <t>54,89%</t>
   </si>
   <si>
     <t>70,6%</t>
   </si>
   <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>29,4%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
   </si>
   <si>
     <t>28,72%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por cirrosis en 2015 (Tasa respuesta: 0,52%)</t>
+    <t>Población que recibe medicación o terapia por cirrosis en 2016 (Tasa respuesta: 0,52%)</t>
   </si>
   <si>
     <t>48,43%</t>
@@ -330,10 +318,10 @@
     <t>71,55%</t>
   </si>
   <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>17,56%</t>
@@ -348,49 +336,49 @@
     <t>28,45%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
   </si>
   <si>
     <t>86,96%</t>
   </si>
   <si>
-    <t>46,0%</t>
+    <t>39,52%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>13,04%</t>
   </si>
   <si>
-    <t>54,0%</t>
+    <t>60,48%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
   </si>
   <si>
     <t>52,9%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>23,43%</t>
@@ -402,19 +390,19 @@
     <t>42,48%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
   </si>
   <si>
     <t>47,1%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>76,57%</t>
@@ -426,64 +414,64 @@
     <t>57,52%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
   </si>
   <si>
     <t>64,07%</t>
   </si>
   <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
   </si>
   <si>
     <t>56,86%</t>
   </si>
   <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>35,93%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
   <si>
     <t>43,14%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
   </si>
 </sst>
 </file>
@@ -895,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824A3F6D-1D7A-41AC-A514-0D3B304CABA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75FA4B7-E7BE-4351-AAB6-C376E7C08861}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1481,7 +1469,7 @@
         <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -1493,7 +1481,7 @@
         <v>2066</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
@@ -1508,13 +1496,13 @@
         <v>5184</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1529,13 +1517,13 @@
         <v>3273</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1544,7 +1532,7 @@
         <v>1067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
@@ -1559,13 +1547,13 @@
         <v>4339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1621,7 +1609,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1636,7 +1624,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>18</v>
@@ -1648,10 +1636,10 @@
         <v>4092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -1663,10 +1651,10 @@
         <v>8139</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -1690,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1699,13 +1687,13 @@
         <v>1991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1714,13 +1702,13 @@
         <v>1991</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,13 +1776,13 @@
         <v>17602</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -1803,13 +1791,13 @@
         <v>15974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -1818,13 +1806,13 @@
         <v>33576</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,13 +1827,13 @@
         <v>7331</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1854,13 +1842,13 @@
         <v>6198</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -1869,13 +1857,13 @@
         <v>13528</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,7 +1919,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +1940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA46837-44B2-45B6-9989-D60FF02C35CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00EF6A3-3C72-48D3-9039-CDD72952ACE5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1969,7 +1957,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2076,7 +2064,7 @@
         <v>1079</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -2104,7 +2092,7 @@
         <v>1079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
@@ -2125,7 +2113,7 @@
         <v>1149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -2153,7 +2141,7 @@
         <v>1149</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
@@ -2231,7 +2219,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2243,7 +2231,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>18</v>
@@ -2255,7 +2243,7 @@
         <v>2030</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
@@ -2279,7 +2267,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -2297,7 +2285,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2306,7 +2294,7 @@
         <v>2167</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
@@ -2380,10 +2368,10 @@
         <v>4859</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -2395,7 +2383,7 @@
         <v>2986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
@@ -2410,13 +2398,13 @@
         <v>7845</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2419,13 @@
         <v>1035</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2446,7 +2434,7 @@
         <v>2085</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
@@ -2461,13 +2449,13 @@
         <v>3120</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,10 +2523,10 @@
         <v>5794</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -2556,7 +2544,7 @@
         <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2565,13 +2553,13 @@
         <v>5794</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2574,13 @@
         <v>869</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2604,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -2616,13 +2604,13 @@
         <v>3213</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,7 +2666,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2690,13 +2678,13 @@
         <v>4132</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2705,13 +2693,13 @@
         <v>1002</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2720,13 +2708,13 @@
         <v>5134</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2729,13 @@
         <v>3679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2756,10 +2744,10 @@
         <v>3273</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -2771,13 +2759,13 @@
         <v>6952</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2833,13 @@
         <v>15865</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -2860,13 +2848,13 @@
         <v>6017</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -2875,13 +2863,13 @@
         <v>21882</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2884,13 @@
         <v>8899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2911,13 +2899,13 @@
         <v>7703</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -2926,13 +2914,13 @@
         <v>16601</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,7 +2976,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
